--- a/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
@@ -673,46 +673,46 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>3724</v>
+        <v>3560</v>
       </c>
       <c r="C4">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D4">
-        <v>1064</v>
+        <v>1042</v>
       </c>
       <c r="E4">
-        <v>26.39366272824919</v>
+        <v>27.13089887640449</v>
       </c>
       <c r="F4">
-        <v>25.73684210526316</v>
+        <v>26.10344827586207</v>
       </c>
       <c r="G4">
-        <v>27.82612781954887</v>
+        <v>28.2447216890595</v>
       </c>
       <c r="H4">
-        <v>2526</v>
+        <v>2554</v>
       </c>
       <c r="I4">
-        <v>2.569946077932648</v>
+        <v>2.644275567887686</v>
       </c>
       <c r="J4">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="K4">
-        <v>10.42944785276074</v>
+        <v>10.4946425950389</v>
       </c>
       <c r="L4">
-        <v>1799</v>
+        <v>1807</v>
       </c>
       <c r="M4">
-        <v>6.076265747965008</v>
+        <v>6.139784580884102</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4">
-        <v>0.001017397497202157</v>
+        <v>0.00103534673762243</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -850,46 +850,46 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>19292</v>
+        <v>12348</v>
       </c>
       <c r="C7">
-        <v>2756</v>
+        <v>2591</v>
       </c>
       <c r="D7">
-        <v>5513</v>
+        <v>4896</v>
       </c>
       <c r="E7">
-        <v>106.4200704955422</v>
+        <v>107.1879656624555</v>
       </c>
       <c r="F7">
-        <v>105.4270682148041</v>
+        <v>104.7306059436511</v>
       </c>
       <c r="G7">
-        <v>106.3865409033194</v>
+        <v>106.5292075163399</v>
       </c>
       <c r="H7">
-        <v>879</v>
+        <v>1810</v>
       </c>
       <c r="I7">
-        <v>0.04281422425886094</v>
+        <v>0.1367527050213931</v>
       </c>
       <c r="J7">
-        <v>1596</v>
+        <v>1739</v>
       </c>
       <c r="K7">
-        <v>0.5492898123259808</v>
+        <v>0.6408531933946794</v>
       </c>
       <c r="L7">
-        <v>1580</v>
+        <v>1795</v>
       </c>
       <c r="M7">
-        <v>0.2693905805367011</v>
+        <v>0.3441552092061039</v>
       </c>
       <c r="N7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>0.0004383708968484055</v>
+        <v>0.0003022159226992113</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -901,7 +901,7 @@
         <v>2</v>
       </c>
       <c r="S7">
-        <v>0.0003410007348565836</v>
+        <v>0.0003834598431265782</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1027,58 +1027,58 @@
         <v>27</v>
       </c>
       <c r="B10">
-        <v>31217</v>
+        <v>28204</v>
       </c>
       <c r="C10">
         <v>4459</v>
       </c>
       <c r="D10">
-        <v>8920</v>
+        <v>8915</v>
       </c>
       <c r="E10">
-        <v>138.3485600794439</v>
+        <v>131.670401361509</v>
       </c>
       <c r="F10">
-        <v>138.8392016147118</v>
+        <v>131.7584660237721</v>
       </c>
       <c r="G10">
-        <v>139.1183856502242</v>
+        <v>132.0252383623107</v>
       </c>
       <c r="H10">
-        <v>4049</v>
+        <v>4492</v>
       </c>
       <c r="I10">
-        <v>0.09375230820776105</v>
+        <v>0.1209597504545415</v>
       </c>
       <c r="J10">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="K10">
-        <v>0.5273920824960748</v>
+        <v>0.5552236468763989</v>
       </c>
       <c r="L10">
-        <v>3793</v>
+        <v>3800</v>
       </c>
       <c r="M10">
-        <v>0.3056563755100988</v>
+        <v>0.3228533438685477</v>
       </c>
       <c r="N10">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="O10">
-        <v>0.001481883854111313</v>
+        <v>0.001561813340686422</v>
       </c>
       <c r="P10">
         <v>8</v>
       </c>
       <c r="Q10">
-        <v>0.001292231748841837</v>
+        <v>0.00136167663243752</v>
       </c>
       <c r="R10">
         <v>24</v>
       </c>
       <c r="S10">
-        <v>0.001934023994791029</v>
+        <v>0.002039073750748722</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1086,58 +1086,58 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>100307</v>
+        <v>11881</v>
       </c>
       <c r="C11">
-        <v>9079</v>
+        <v>1697</v>
       </c>
       <c r="D11">
-        <v>18286</v>
+        <v>3396</v>
       </c>
       <c r="E11">
-        <v>20.68556531448453</v>
+        <v>19.45181382038549</v>
       </c>
       <c r="F11">
-        <v>26.67320189448177</v>
+        <v>19.84560989982322</v>
       </c>
       <c r="G11">
-        <v>27.13906813956032</v>
+        <v>19.18404004711425</v>
       </c>
       <c r="H11">
-        <v>331</v>
+        <v>3033</v>
       </c>
       <c r="I11">
-        <v>0.01595252220942914</v>
+        <v>1.31237911443617</v>
       </c>
       <c r="J11">
-        <v>741</v>
+        <v>1774</v>
       </c>
       <c r="K11">
-        <v>0.3059884542008374</v>
+        <v>5.267533701526219</v>
       </c>
       <c r="L11">
+        <v>2105</v>
+      </c>
+      <c r="M11">
+        <v>3.231054966308001</v>
+      </c>
+      <c r="N11">
+        <v>22</v>
+      </c>
+      <c r="O11">
+        <v>0.009519400104713402</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>0.008907892392659897</v>
+      </c>
+      <c r="R11">
         <v>7</v>
       </c>
-      <c r="M11">
-        <v>0.001410536709217857</v>
-      </c>
-      <c r="N11">
-        <v>233</v>
-      </c>
-      <c r="O11">
-        <v>0.01122941895709061</v>
-      </c>
-      <c r="P11">
-        <v>27</v>
-      </c>
-      <c r="Q11">
-        <v>0.01114937687371472</v>
-      </c>
-      <c r="R11">
-        <v>56</v>
-      </c>
       <c r="S11">
-        <v>0.01128429367374286</v>
+        <v>0.01074460083807887</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1322,58 +1322,58 @@
         <v>32</v>
       </c>
       <c r="B15">
-        <v>13976</v>
+        <v>9831</v>
       </c>
       <c r="C15">
-        <v>1996</v>
+        <v>1677</v>
       </c>
       <c r="D15">
-        <v>3994</v>
+        <v>2552</v>
       </c>
       <c r="E15">
-        <v>124.8941041785919</v>
+        <v>125.2016071610213</v>
       </c>
       <c r="F15">
-        <v>122.7790581162325</v>
+        <v>119.6529516994633</v>
       </c>
       <c r="G15">
-        <v>125.6281922884326</v>
+        <v>121.7574451410658</v>
       </c>
       <c r="H15">
-        <v>1771</v>
+        <v>2057</v>
       </c>
       <c r="I15">
-        <v>0.1014597369265319</v>
+        <v>0.1671193323026152</v>
       </c>
       <c r="J15">
-        <v>1305</v>
+        <v>1405</v>
       </c>
       <c r="K15">
-        <v>0.5325074367417889</v>
+        <v>0.7001963539953553</v>
       </c>
       <c r="L15">
-        <v>956</v>
+        <v>1373</v>
       </c>
       <c r="M15">
-        <v>0.1905297164575025</v>
+        <v>0.4418698205808995</v>
       </c>
       <c r="N15">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>0.002406159769008662</v>
+        <v>0.001624884125450804</v>
       </c>
       <c r="P15">
         <v>5</v>
       </c>
       <c r="Q15">
-        <v>0.00204025837832103</v>
+        <v>0.00249180197151372</v>
       </c>
       <c r="R15">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="S15">
-        <v>0.003985977331746915</v>
+        <v>0.001930967897658702</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1440,40 +1440,40 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>35841</v>
+        <v>33976</v>
       </c>
       <c r="C17">
-        <v>5134</v>
+        <v>4947</v>
       </c>
       <c r="D17">
-        <v>10076</v>
+        <v>9816</v>
       </c>
       <c r="E17">
-        <v>110.2645015485059</v>
+        <v>114.1969036967271</v>
       </c>
       <c r="F17">
-        <v>105.3067783404753</v>
+        <v>108.0515463917526</v>
       </c>
       <c r="G17">
-        <v>110.4331083763398</v>
+        <v>112.0553178484108</v>
       </c>
       <c r="H17">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="I17">
-        <v>0.01379052072500184</v>
+        <v>0.01417542579113051</v>
       </c>
       <c r="J17">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="K17">
-        <v>0.1261456223584792</v>
+        <v>0.130207602552518</v>
       </c>
       <c r="L17">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M17">
-        <v>0.0493383804070012</v>
+        <v>0.050093869183179</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1499,40 +1499,40 @@
         <v>35</v>
       </c>
       <c r="B18">
-        <v>8702</v>
+        <v>6621</v>
       </c>
       <c r="C18">
-        <v>1240</v>
+        <v>1184</v>
       </c>
       <c r="D18">
-        <v>2492</v>
+        <v>2305</v>
       </c>
       <c r="E18">
-        <v>41.82509767869455</v>
+        <v>40.97130342848512</v>
       </c>
       <c r="F18">
-        <v>42.0983870967742</v>
+        <v>42.89780405405406</v>
       </c>
       <c r="G18">
-        <v>42.06540930979133</v>
+        <v>42.86247288503254</v>
       </c>
       <c r="H18">
-        <v>560</v>
+        <v>855</v>
       </c>
       <c r="I18">
-        <v>0.153862216385227</v>
+        <v>0.3151829720095403</v>
       </c>
       <c r="J18">
-        <v>1023</v>
+        <v>1040</v>
       </c>
       <c r="K18">
-        <v>1.95969503084173</v>
+        <v>2.047606859482979</v>
       </c>
       <c r="L18">
-        <v>925</v>
+        <v>972</v>
       </c>
       <c r="M18">
-        <v>0.8824062502981102</v>
+        <v>0.9838255835138363</v>
       </c>
       <c r="N18">
         <v>0</v>

--- a/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
@@ -555,58 +555,58 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4939</v>
+        <v>6444</v>
       </c>
       <c r="C2">
-        <v>705</v>
+        <v>772</v>
       </c>
       <c r="D2">
-        <v>1412</v>
+        <v>1490</v>
       </c>
       <c r="E2">
-        <v>42.47418505770399</v>
+        <v>75.7088764742396</v>
       </c>
       <c r="F2">
-        <v>41.93049645390071</v>
+        <v>78.78238341968913</v>
       </c>
       <c r="G2">
-        <v>43.092776203966</v>
+        <v>86.29060402684564</v>
       </c>
       <c r="H2">
-        <v>2824</v>
+        <v>4254</v>
       </c>
       <c r="I2">
-        <v>1.346172180379445</v>
+        <v>0.8719571687423648</v>
       </c>
       <c r="J2">
-        <v>1573</v>
+        <v>3034</v>
       </c>
       <c r="K2">
-        <v>5.321200230032813</v>
+        <v>4.988490628082867</v>
       </c>
       <c r="L2">
-        <v>2034</v>
+        <v>3383</v>
       </c>
       <c r="M2">
-        <v>3.342810656236133</v>
+        <v>2.63119006323256</v>
       </c>
       <c r="N2">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>0.02621794260654018</v>
+        <v>0.002459681717185796</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.003288391976323578</v>
       </c>
       <c r="R2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S2">
-        <v>0.01479119759396519</v>
+        <v>0.00233330481516337</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -791,58 +791,58 @@
         <v>23</v>
       </c>
       <c r="B6">
-        <v>462</v>
+        <v>5936</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>383</v>
       </c>
       <c r="D6">
-        <v>133</v>
+        <v>767</v>
       </c>
       <c r="E6">
-        <v>41.82034632034632</v>
+        <v>105.8586590296496</v>
       </c>
       <c r="F6">
-        <v>41.22727272727273</v>
+        <v>66.59007832898172</v>
       </c>
       <c r="G6">
-        <v>39.99248120300752</v>
+        <v>66.94263363754889</v>
       </c>
       <c r="H6">
-        <v>1706</v>
+        <v>1668</v>
       </c>
       <c r="I6">
-        <v>8.829770715801459</v>
+        <v>0.2654457435584052</v>
       </c>
       <c r="J6">
-        <v>648</v>
+        <v>1644</v>
       </c>
       <c r="K6">
-        <v>23.81477398015436</v>
+        <v>6.446047678795483</v>
       </c>
       <c r="L6">
-        <v>1056</v>
+        <v>1940</v>
       </c>
       <c r="M6">
-        <v>19.85335589396503</v>
+        <v>3.778362060570649</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.03612481042431534</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.03920953575909662</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.0175284837861525</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1086,58 +1086,58 @@
         <v>28</v>
       </c>
       <c r="B11">
-        <v>11881</v>
+        <v>7926</v>
       </c>
       <c r="C11">
-        <v>1697</v>
+        <v>1132</v>
       </c>
       <c r="D11">
-        <v>3396</v>
+        <v>2266</v>
       </c>
       <c r="E11">
-        <v>19.45181382038549</v>
+        <v>47.81175876860964</v>
       </c>
       <c r="F11">
-        <v>19.84560989982322</v>
+        <v>47.93109540636043</v>
       </c>
       <c r="G11">
-        <v>19.18404004711425</v>
+        <v>47.40644307149162</v>
       </c>
       <c r="H11">
-        <v>3033</v>
+        <v>2738</v>
       </c>
       <c r="I11">
-        <v>1.31237911443617</v>
+        <v>0.7225113205754757</v>
       </c>
       <c r="J11">
-        <v>1774</v>
+        <v>1861</v>
       </c>
       <c r="K11">
-        <v>5.267533701526219</v>
+        <v>3.429908953518375</v>
       </c>
       <c r="L11">
-        <v>2105</v>
+        <v>2215</v>
       </c>
       <c r="M11">
-        <v>3.231054966308001</v>
+        <v>2.061942042206976</v>
       </c>
       <c r="N11">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="O11">
-        <v>0.009519400104713402</v>
+        <v>0.001583297269339976</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0.008907892392659897</v>
+        <v>0.001843046186737439</v>
       </c>
       <c r="R11">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01074460083807887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1145,46 +1145,46 @@
         <v>29</v>
       </c>
       <c r="B12">
-        <v>1355</v>
+        <v>4432</v>
       </c>
       <c r="C12">
-        <v>199</v>
+        <v>633</v>
       </c>
       <c r="D12">
-        <v>397</v>
+        <v>1267</v>
       </c>
       <c r="E12">
-        <v>80.20959409594096</v>
+        <v>23.67170577617329</v>
       </c>
       <c r="F12">
-        <v>82.01005025125629</v>
+        <v>21.32859399684044</v>
       </c>
       <c r="G12">
-        <v>79.75314861460957</v>
+        <v>22.94869771112865</v>
       </c>
       <c r="H12">
-        <v>2406</v>
+        <v>3422</v>
       </c>
       <c r="I12">
-        <v>2.213757314784145</v>
+        <v>3.261750212080486</v>
       </c>
       <c r="J12">
-        <v>1761</v>
+        <v>2088</v>
       </c>
       <c r="K12">
-        <v>10.79044117647059</v>
+        <v>15.46552107251315</v>
       </c>
       <c r="L12">
-        <v>2003</v>
+        <v>2591</v>
       </c>
       <c r="M12">
-        <v>6.326195439327901</v>
+        <v>8.911129453845096</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.002859512167224272</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1263,46 +1263,46 @@
         <v>31</v>
       </c>
       <c r="B14">
-        <v>3237</v>
+        <v>36000</v>
       </c>
       <c r="C14">
-        <v>463</v>
+        <v>1333</v>
       </c>
       <c r="D14">
-        <v>926</v>
+        <v>2667</v>
       </c>
       <c r="E14">
-        <v>39.5863453815261</v>
+        <v>24.08722222222222</v>
       </c>
       <c r="F14">
-        <v>35.22462203023758</v>
+        <v>25.09902475618905</v>
       </c>
       <c r="G14">
-        <v>38.35097192224622</v>
+        <v>23.66891638545182</v>
       </c>
       <c r="H14">
-        <v>775</v>
+        <v>1491</v>
       </c>
       <c r="I14">
-        <v>0.6048025222216152</v>
+        <v>0.1719445533593191</v>
       </c>
       <c r="J14">
-        <v>1008</v>
+        <v>972</v>
       </c>
       <c r="K14">
-        <v>6.180636458397204</v>
+        <v>2.905221627761007</v>
       </c>
       <c r="L14">
-        <v>937</v>
+        <v>950</v>
       </c>
       <c r="M14">
-        <v>2.63847041928308</v>
+        <v>1.504950495049505</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.0008072514242221556</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1381,46 +1381,46 @@
         <v>33</v>
       </c>
       <c r="B16">
-        <v>915</v>
+        <v>4486</v>
       </c>
       <c r="C16">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="D16">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="E16">
-        <v>18.76612021857924</v>
+        <v>42.65202853321445</v>
       </c>
       <c r="F16">
-        <v>16.57142857142857</v>
+        <v>18.85714285714286</v>
       </c>
       <c r="G16">
-        <v>17.28448275862069</v>
+        <v>18.40284360189574</v>
       </c>
       <c r="H16">
-        <v>1375</v>
+        <v>2780</v>
       </c>
       <c r="I16">
-        <v>8.00768737988469</v>
+        <v>1.452933828794222</v>
       </c>
       <c r="J16">
-        <v>186</v>
+        <v>651</v>
       </c>
       <c r="K16">
-        <v>53.44827586206896</v>
+        <v>32.87878787878788</v>
       </c>
       <c r="L16">
-        <v>605</v>
+        <v>911</v>
       </c>
       <c r="M16">
-        <v>30.17456359102245</v>
+        <v>23.4612413082668</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.001045276135823181</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1440,40 +1440,40 @@
         <v>34</v>
       </c>
       <c r="B17">
-        <v>33976</v>
+        <v>2468</v>
       </c>
       <c r="C17">
-        <v>4947</v>
+        <v>353</v>
       </c>
       <c r="D17">
-        <v>9816</v>
+        <v>706</v>
       </c>
       <c r="E17">
-        <v>114.1969036967271</v>
+        <v>24.32698541329011</v>
       </c>
       <c r="F17">
-        <v>108.0515463917526</v>
+        <v>22.99150141643059</v>
       </c>
       <c r="G17">
-        <v>112.0553178484108</v>
+        <v>26.16005665722379</v>
       </c>
       <c r="H17">
-        <v>550</v>
+        <v>1354</v>
       </c>
       <c r="I17">
-        <v>0.01417542579113051</v>
+        <v>2.255200786155665</v>
       </c>
       <c r="J17">
-        <v>696</v>
+        <v>1212</v>
       </c>
       <c r="K17">
-        <v>0.130207602552518</v>
+        <v>14.93346476096599</v>
       </c>
       <c r="L17">
-        <v>551</v>
+        <v>1482</v>
       </c>
       <c r="M17">
-        <v>0.050093869183179</v>
+        <v>8.024256862851264</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1617,58 +1617,58 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>502</v>
+        <v>595</v>
       </c>
       <c r="C20">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="D20">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="E20">
-        <v>50.84262948207171</v>
+        <v>53.43697478991596</v>
       </c>
       <c r="F20">
-        <v>65.875</v>
+        <v>52.04705882352941</v>
       </c>
       <c r="G20">
-        <v>49.72413793103448</v>
+        <v>56.98245614035088</v>
       </c>
       <c r="H20">
-        <v>1062</v>
+        <v>1527</v>
       </c>
       <c r="I20">
-        <v>4.160952866042393</v>
+        <v>4.802641924830948</v>
       </c>
       <c r="J20">
-        <v>549</v>
+        <v>703</v>
       </c>
       <c r="K20">
-        <v>11.57495256166983</v>
+        <v>15.89059674502712</v>
       </c>
       <c r="L20">
-        <v>700</v>
+        <v>981</v>
       </c>
       <c r="M20">
-        <v>9.708737864077669</v>
+        <v>10.06773399014778</v>
       </c>
       <c r="N20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O20">
-        <v>0.02350820828272538</v>
+        <v>0.03145148608271741</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q20">
-        <v>0.0421674045962471</v>
+        <v>0.06781193490054249</v>
       </c>
       <c r="R20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S20">
-        <v>0.02773925104022191</v>
+        <v>0.04105090311986864</v>
       </c>
     </row>
   </sheetData>

--- a/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
+++ b/data_exploration/acl/tables/basic_stats_sentiment_xlm-roberta.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>language</t>
   </si>
@@ -35,6 +35,24 @@
   </si>
   <si>
     <t>test_avg_tokens</t>
+  </si>
+  <si>
+    <t>train_longest</t>
+  </si>
+  <si>
+    <t>dev_longest</t>
+  </si>
+  <si>
+    <t>test_longest</t>
+  </si>
+  <si>
+    <t>train_shortest</t>
+  </si>
+  <si>
+    <t>dev_shortest</t>
+  </si>
+  <si>
+    <t>test_shortest</t>
   </si>
   <si>
     <t>train_hapaxes</t>
@@ -485,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,10 +567,28 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B2">
         <v>6444</v>
@@ -573,45 +609,63 @@
         <v>86.29060402684564</v>
       </c>
       <c r="H2">
+        <v>3639</v>
+      </c>
+      <c r="I2">
+        <v>3169</v>
+      </c>
+      <c r="J2">
+        <v>2889</v>
+      </c>
+      <c r="K2">
+        <v>4</v>
+      </c>
+      <c r="L2">
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
         <v>4254</v>
       </c>
-      <c r="I2">
+      <c r="O2">
         <v>0.8719571687423648</v>
       </c>
-      <c r="J2">
+      <c r="P2">
         <v>3034</v>
       </c>
-      <c r="K2">
+      <c r="Q2">
         <v>4.988490628082867</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>3383</v>
       </c>
-      <c r="M2">
+      <c r="S2">
         <v>2.63119006323256</v>
       </c>
-      <c r="N2">
+      <c r="T2">
         <v>12</v>
       </c>
-      <c r="O2">
+      <c r="U2">
         <v>0.002459681717185796</v>
       </c>
-      <c r="P2">
+      <c r="V2">
         <v>2</v>
       </c>
-      <c r="Q2">
+      <c r="W2">
         <v>0.003288391976323578</v>
       </c>
-      <c r="R2">
-        <v>3</v>
-      </c>
-      <c r="S2">
+      <c r="X2">
+        <v>3</v>
+      </c>
+      <c r="Y2">
         <v>0.00233330481516337</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>1029</v>
@@ -632,45 +686,63 @@
         <v>23.61824324324324</v>
       </c>
       <c r="H3">
+        <v>161</v>
+      </c>
+      <c r="I3">
+        <v>105</v>
+      </c>
+      <c r="J3">
+        <v>156</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
         <v>1470</v>
       </c>
-      <c r="I3">
+      <c r="O3">
         <v>6.230661636926206</v>
       </c>
-      <c r="J3">
+      <c r="P3">
         <v>576</v>
       </c>
-      <c r="K3">
+      <c r="Q3">
         <v>17.03637976929902</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>885</v>
       </c>
-      <c r="M3">
+      <c r="S3">
         <v>12.65913317122014</v>
       </c>
-      <c r="N3">
+      <c r="T3">
         <v>1</v>
       </c>
-      <c r="O3">
+      <c r="U3">
         <v>0.004238545331242318</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>3560</v>
@@ -691,45 +763,63 @@
         <v>28.2447216890595</v>
       </c>
       <c r="H4">
+        <v>338</v>
+      </c>
+      <c r="I4">
+        <v>273</v>
+      </c>
+      <c r="J4">
+        <v>329</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
         <v>2554</v>
       </c>
-      <c r="I4">
+      <c r="O4">
         <v>2.644275567887686</v>
       </c>
-      <c r="J4">
+      <c r="P4">
         <v>1430</v>
       </c>
-      <c r="K4">
+      <c r="Q4">
         <v>10.4946425950389</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>1807</v>
       </c>
-      <c r="M4">
+      <c r="S4">
         <v>6.139784580884102</v>
       </c>
-      <c r="N4">
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="O4">
+      <c r="U4">
         <v>0.00103534673762243</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>2675</v>
@@ -750,45 +840,63 @@
         <v>29.23980815347722</v>
       </c>
       <c r="H5">
+        <v>146</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
         <v>3437</v>
       </c>
-      <c r="I5">
+      <c r="O5">
         <v>4.518088127037544</v>
       </c>
-      <c r="J5">
+      <c r="P5">
         <v>1866</v>
       </c>
-      <c r="K5">
+      <c r="Q5">
         <v>12.62602341159754</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>1661</v>
       </c>
-      <c r="M5">
+      <c r="S5">
         <v>13.62257032723694</v>
       </c>
-      <c r="N5">
+      <c r="T5">
         <v>578</v>
       </c>
-      <c r="O5">
+      <c r="U5">
         <v>0.75980649910611</v>
       </c>
-      <c r="P5">
+      <c r="V5">
         <v>118</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <v>0.7984302050206374</v>
       </c>
-      <c r="R5">
+      <c r="X5">
         <v>105</v>
       </c>
-      <c r="S5">
+      <c r="Y5">
         <v>0.8611498400721725</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>5936</v>
@@ -809,45 +917,63 @@
         <v>66.94263363754889</v>
       </c>
       <c r="H6">
+        <v>1543</v>
+      </c>
+      <c r="I6">
+        <v>346</v>
+      </c>
+      <c r="J6">
+        <v>326</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
         <v>1668</v>
       </c>
-      <c r="I6">
+      <c r="O6">
         <v>0.2654457435584052</v>
       </c>
-      <c r="J6">
+      <c r="P6">
         <v>1644</v>
       </c>
-      <c r="K6">
+      <c r="Q6">
         <v>6.446047678795483</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>1940</v>
       </c>
-      <c r="M6">
+      <c r="S6">
         <v>3.778362060570649</v>
       </c>
-      <c r="N6">
+      <c r="T6">
         <v>227</v>
       </c>
-      <c r="O6">
+      <c r="U6">
         <v>0.03612481042431534</v>
       </c>
-      <c r="P6">
+      <c r="V6">
         <v>10</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <v>0.03920953575909662</v>
       </c>
-      <c r="R6">
+      <c r="X6">
         <v>9</v>
       </c>
-      <c r="S6">
+      <c r="Y6">
         <v>0.0175284837861525</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>12348</v>
@@ -868,45 +994,63 @@
         <v>106.5292075163399</v>
       </c>
       <c r="H7">
+        <v>3884</v>
+      </c>
+      <c r="I7">
+        <v>3591</v>
+      </c>
+      <c r="J7">
+        <v>1182</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
         <v>1810</v>
       </c>
-      <c r="I7">
+      <c r="O7">
         <v>0.1367527050213931</v>
       </c>
-      <c r="J7">
+      <c r="P7">
         <v>1739</v>
       </c>
-      <c r="K7">
+      <c r="Q7">
         <v>0.6408531933946794</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>1795</v>
       </c>
-      <c r="M7">
+      <c r="S7">
         <v>0.3441552092061039</v>
       </c>
-      <c r="N7">
+      <c r="T7">
         <v>4</v>
       </c>
-      <c r="O7">
+      <c r="U7">
         <v>0.0003022159226992113</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
         <v>2</v>
       </c>
-      <c r="S7">
+      <c r="Y7">
         <v>0.0003834598431265782</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>2384</v>
@@ -927,45 +1071,63 @@
         <v>34.07591240875912</v>
       </c>
       <c r="H8">
+        <v>426</v>
+      </c>
+      <c r="I8">
+        <v>433</v>
+      </c>
+      <c r="J8">
+        <v>744</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
         <v>1503</v>
       </c>
-      <c r="I8">
+      <c r="O8">
         <v>1.925910739226817</v>
       </c>
-      <c r="J8">
+      <c r="P8">
         <v>1006</v>
       </c>
-      <c r="K8">
+      <c r="Q8">
         <v>8.097231165486155</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>1079</v>
       </c>
-      <c r="M8">
+      <c r="S8">
         <v>4.622568760174793</v>
       </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B9">
         <v>8103</v>
@@ -986,45 +1148,63 @@
         <v>28.32764505119454</v>
       </c>
       <c r="H9">
+        <v>490</v>
+      </c>
+      <c r="I9">
+        <v>389</v>
+      </c>
+      <c r="J9">
+        <v>574</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
         <v>2150</v>
       </c>
-      <c r="I9">
+      <c r="O9">
         <v>0.9936958089146068</v>
       </c>
-      <c r="J9">
+      <c r="P9">
         <v>1375</v>
       </c>
-      <c r="K9">
+      <c r="Q9">
         <v>4.26013136695997</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>1654</v>
       </c>
-      <c r="M9">
+      <c r="S9">
         <v>2.490963855421687</v>
       </c>
-      <c r="N9">
+      <c r="T9">
         <v>5</v>
       </c>
-      <c r="O9">
+      <c r="U9">
         <v>0.002310920485847923</v>
       </c>
-      <c r="P9">
+      <c r="V9">
         <v>4</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <v>0.01239310943115628</v>
       </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9">
+      <c r="X9">
+        <v>3</v>
+      </c>
+      <c r="Y9">
         <v>0.004518072289156626</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B10">
         <v>28204</v>
@@ -1045,45 +1225,63 @@
         <v>132.0252383623107</v>
       </c>
       <c r="H10">
+        <v>228</v>
+      </c>
+      <c r="I10">
+        <v>226</v>
+      </c>
+      <c r="J10">
+        <v>233</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>6</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
         <v>4492</v>
       </c>
-      <c r="I10">
+      <c r="O10">
         <v>0.1209597504545415</v>
       </c>
-      <c r="J10">
+      <c r="P10">
         <v>3262</v>
       </c>
-      <c r="K10">
+      <c r="Q10">
         <v>0.5552236468763989</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>3800</v>
       </c>
-      <c r="M10">
+      <c r="S10">
         <v>0.3228533438685477</v>
       </c>
-      <c r="N10">
+      <c r="T10">
         <v>58</v>
       </c>
-      <c r="O10">
+      <c r="U10">
         <v>0.001561813340686422</v>
       </c>
-      <c r="P10">
+      <c r="V10">
         <v>8</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <v>0.00136167663243752</v>
       </c>
-      <c r="R10">
+      <c r="X10">
         <v>24</v>
       </c>
-      <c r="S10">
+      <c r="Y10">
         <v>0.002039073750748722</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>7926</v>
@@ -1104,45 +1302,63 @@
         <v>47.40644307149162</v>
       </c>
       <c r="H11">
+        <v>164</v>
+      </c>
+      <c r="I11">
+        <v>132</v>
+      </c>
+      <c r="J11">
+        <v>139</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>3</v>
+      </c>
+      <c r="N11">
         <v>2738</v>
       </c>
-      <c r="I11">
+      <c r="O11">
         <v>0.7225113205754757</v>
       </c>
-      <c r="J11">
+      <c r="P11">
         <v>1861</v>
       </c>
-      <c r="K11">
+      <c r="Q11">
         <v>3.429908953518375</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>2215</v>
       </c>
-      <c r="M11">
+      <c r="S11">
         <v>2.061942042206976</v>
       </c>
-      <c r="N11">
+      <c r="T11">
         <v>6</v>
       </c>
-      <c r="O11">
+      <c r="U11">
         <v>0.001583297269339976</v>
       </c>
-      <c r="P11">
+      <c r="V11">
         <v>1</v>
       </c>
-      <c r="Q11">
+      <c r="W11">
         <v>0.001843046186737439</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B12">
         <v>4432</v>
@@ -1163,45 +1379,63 @@
         <v>22.94869771112865</v>
       </c>
       <c r="H12">
+        <v>2667</v>
+      </c>
+      <c r="I12">
+        <v>522</v>
+      </c>
+      <c r="J12">
+        <v>1009</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
         <v>3422</v>
       </c>
-      <c r="I12">
+      <c r="O12">
         <v>3.261750212080486</v>
       </c>
-      <c r="J12">
+      <c r="P12">
         <v>2088</v>
       </c>
-      <c r="K12">
+      <c r="Q12">
         <v>15.46552107251315</v>
       </c>
-      <c r="L12">
+      <c r="R12">
         <v>2591</v>
       </c>
-      <c r="M12">
+      <c r="S12">
         <v>8.911129453845096</v>
       </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12">
+      <c r="T12">
+        <v>3</v>
+      </c>
+      <c r="U12">
         <v>0.002859512167224272</v>
       </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B13">
         <v>789</v>
@@ -1222,45 +1456,63 @@
         <v>19.17180616740088</v>
       </c>
       <c r="H13">
+        <v>140</v>
+      </c>
+      <c r="I13">
+        <v>66</v>
+      </c>
+      <c r="J13">
+        <v>72</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="L13">
+        <v>5</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+      <c r="N13">
         <v>995</v>
       </c>
-      <c r="I13">
+      <c r="O13">
         <v>6.367592474081659</v>
       </c>
-      <c r="J13">
+      <c r="P13">
         <v>474</v>
       </c>
-      <c r="K13">
+      <c r="Q13">
         <v>21.72318973418882</v>
       </c>
-      <c r="L13">
+      <c r="R13">
         <v>657</v>
       </c>
-      <c r="M13">
+      <c r="S13">
         <v>15.09650735294118</v>
       </c>
-      <c r="N13">
+      <c r="T13">
         <v>1</v>
       </c>
-      <c r="O13">
+      <c r="U13">
         <v>0.006399590426212722</v>
       </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B14">
         <v>36000</v>
@@ -1281,45 +1533,63 @@
         <v>23.66891638545182</v>
       </c>
       <c r="H14">
+        <v>129</v>
+      </c>
+      <c r="I14">
+        <v>108</v>
+      </c>
+      <c r="J14">
+        <v>108</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14">
         <v>1491</v>
       </c>
-      <c r="I14">
+      <c r="O14">
         <v>0.1719445533593191</v>
       </c>
-      <c r="J14">
+      <c r="P14">
         <v>972</v>
       </c>
-      <c r="K14">
+      <c r="Q14">
         <v>2.905221627761007</v>
       </c>
-      <c r="L14">
+      <c r="R14">
         <v>950</v>
       </c>
-      <c r="M14">
+      <c r="S14">
         <v>1.504950495049505</v>
       </c>
-      <c r="N14">
+      <c r="T14">
         <v>7</v>
       </c>
-      <c r="O14">
+      <c r="U14">
         <v>0.0008072514242221556</v>
       </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>9831</v>
@@ -1340,45 +1610,63 @@
         <v>121.7574451410658</v>
       </c>
       <c r="H15">
+        <v>1105</v>
+      </c>
+      <c r="I15">
+        <v>1002</v>
+      </c>
+      <c r="J15">
+        <v>1022</v>
+      </c>
+      <c r="K15">
+        <v>8</v>
+      </c>
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15">
+        <v>9</v>
+      </c>
+      <c r="N15">
         <v>2057</v>
       </c>
-      <c r="I15">
+      <c r="O15">
         <v>0.1671193323026152</v>
       </c>
-      <c r="J15">
+      <c r="P15">
         <v>1405</v>
       </c>
-      <c r="K15">
+      <c r="Q15">
         <v>0.7001963539953553</v>
       </c>
-      <c r="L15">
+      <c r="R15">
         <v>1373</v>
       </c>
-      <c r="M15">
+      <c r="S15">
         <v>0.4418698205808995</v>
       </c>
-      <c r="N15">
+      <c r="T15">
         <v>20</v>
       </c>
-      <c r="O15">
+      <c r="U15">
         <v>0.001624884125450804</v>
       </c>
-      <c r="P15">
+      <c r="V15">
         <v>5</v>
       </c>
-      <c r="Q15">
+      <c r="W15">
         <v>0.00249180197151372</v>
       </c>
-      <c r="R15">
+      <c r="X15">
         <v>6</v>
       </c>
-      <c r="S15">
+      <c r="Y15">
         <v>0.001930967897658702</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B16">
         <v>4486</v>
@@ -1399,45 +1687,63 @@
         <v>18.40284360189574</v>
       </c>
       <c r="H16">
+        <v>450</v>
+      </c>
+      <c r="I16">
+        <v>58</v>
+      </c>
+      <c r="J16">
+        <v>104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
         <v>2780</v>
       </c>
-      <c r="I16">
+      <c r="O16">
         <v>1.452933828794222</v>
       </c>
-      <c r="J16">
+      <c r="P16">
         <v>651</v>
       </c>
-      <c r="K16">
+      <c r="Q16">
         <v>32.87878787878788</v>
       </c>
-      <c r="L16">
+      <c r="R16">
         <v>911</v>
       </c>
-      <c r="M16">
+      <c r="S16">
         <v>23.4612413082668</v>
       </c>
-      <c r="N16">
+      <c r="T16">
         <v>2</v>
       </c>
-      <c r="O16">
+      <c r="U16">
         <v>0.001045276135823181</v>
       </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2468</v>
@@ -1458,45 +1764,63 @@
         <v>26.16005665722379</v>
       </c>
       <c r="H17">
+        <v>327</v>
+      </c>
+      <c r="I17">
+        <v>118</v>
+      </c>
+      <c r="J17">
+        <v>770</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
         <v>1354</v>
       </c>
-      <c r="I17">
+      <c r="O17">
         <v>2.255200786155665</v>
       </c>
-      <c r="J17">
+      <c r="P17">
         <v>1212</v>
       </c>
-      <c r="K17">
+      <c r="Q17">
         <v>14.93346476096599</v>
       </c>
-      <c r="L17">
+      <c r="R17">
         <v>1482</v>
       </c>
-      <c r="M17">
+      <c r="S17">
         <v>8.024256862851264</v>
       </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <v>6621</v>
@@ -1517,45 +1841,63 @@
         <v>42.86247288503254</v>
       </c>
       <c r="H18">
+        <v>2028</v>
+      </c>
+      <c r="I18">
+        <v>1313</v>
+      </c>
+      <c r="J18">
+        <v>1059</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
         <v>855</v>
       </c>
-      <c r="I18">
+      <c r="O18">
         <v>0.3151829720095403</v>
       </c>
-      <c r="J18">
+      <c r="P18">
         <v>1040</v>
       </c>
-      <c r="K18">
+      <c r="Q18">
         <v>2.047606859482979</v>
       </c>
-      <c r="L18">
+      <c r="R18">
         <v>972</v>
       </c>
-      <c r="M18">
+      <c r="S18">
         <v>0.9838255835138363</v>
       </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>564</v>
@@ -1576,45 +1918,63 @@
         <v>25.47826086956522</v>
       </c>
       <c r="H19">
+        <v>145</v>
+      </c>
+      <c r="I19">
+        <v>99</v>
+      </c>
+      <c r="J19">
+        <v>90</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>6</v>
+      </c>
+      <c r="N19">
         <v>780</v>
       </c>
-      <c r="I19">
+      <c r="O19">
         <v>4.96372661321115</v>
       </c>
-      <c r="J19">
+      <c r="P19">
         <v>372</v>
       </c>
-      <c r="K19">
+      <c r="Q19">
         <v>18.70286576168929</v>
       </c>
-      <c r="L19">
+      <c r="R19">
         <v>414</v>
       </c>
-      <c r="M19">
+      <c r="S19">
         <v>17.66211604095563</v>
       </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>595</v>
@@ -1635,39 +1995,57 @@
         <v>56.98245614035088</v>
       </c>
       <c r="H20">
+        <v>531</v>
+      </c>
+      <c r="I20">
+        <v>229</v>
+      </c>
+      <c r="J20">
+        <v>784</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <v>11</v>
+      </c>
+      <c r="M20">
+        <v>5</v>
+      </c>
+      <c r="N20">
         <v>1527</v>
       </c>
-      <c r="I20">
+      <c r="O20">
         <v>4.802641924830948</v>
       </c>
-      <c r="J20">
+      <c r="P20">
         <v>703</v>
       </c>
-      <c r="K20">
+      <c r="Q20">
         <v>15.89059674502712</v>
       </c>
-      <c r="L20">
+      <c r="R20">
         <v>981</v>
       </c>
-      <c r="M20">
+      <c r="S20">
         <v>10.06773399014778</v>
       </c>
-      <c r="N20">
+      <c r="T20">
         <v>10</v>
       </c>
-      <c r="O20">
+      <c r="U20">
         <v>0.03145148608271741</v>
       </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20">
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
         <v>0.06781193490054249</v>
       </c>
-      <c r="R20">
+      <c r="X20">
         <v>4</v>
       </c>
-      <c r="S20">
+      <c r="Y20">
         <v>0.04105090311986864</v>
       </c>
     </row>
